--- a/dataset/database-asg/all.xlsx
+++ b/dataset/database-asg/all.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE32"/>
+  <dimension ref="A1:AE38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5195,6 +5195,912 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>05/26/2021 01:36:12</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>3.8333</v>
+      </c>
+      <c r="C33" t="n">
+        <v>30.128</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>4.78474</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.7032</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>38.7894</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>32.3965</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>(0, 0, 0)</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>99.82003253718028</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>3.8663354838709685</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>(0, 0, 0)</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>99.88832060746117</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>33.43032258064517</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>0.17996746281971204</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>-0.1952728159270288</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>0.7251920238095615</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>-0.0006387173056218356</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>0.9197446106169964</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>0.15812141285043024</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>-0.02306928362841159</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>0.11167939253882801</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>-0.11648248070107799</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>3.6412031805087266</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>0.012094235114969392</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>4.128786250251523</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>0.102604668144891</t>
+        </is>
+      </c>
+      <c r="AD33" t="inlineStr">
+        <is>
+          <t>-0.2039029481192384</t>
+        </is>
+      </c>
+      <c r="AE33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>05/26/2021 01:37:15</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>3.8333</v>
+      </c>
+      <c r="C34" t="n">
+        <v>40.514</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>4.78458</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.7397</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>40.1726</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>32.716</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>(0, 0, 0)</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>99.83433409959011</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>3.865303125000001</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>(0, 0, 0)</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>99.88284452493274</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>33.32712500000001</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>0.16566590040989107</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>-0.17633315418310966</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>0.6674262822420981</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>0.00011023529500167432</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>0.8806368829980796</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>0.14563459427738967</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>-0.020825465249012888</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>0.11715547506725833</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>-0.705681857309321</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>3.9366758321329987</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>-0.0036963163846107185</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>4.464366389987044</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>0.10883697770614942</t>
+        </is>
+      </c>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>-0.25582439852196615</t>
+        </is>
+      </c>
+      <c r="AE34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>05/26/2021 01:38:17</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C35" t="n">
+        <v>37.306</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>4.78442</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.7865</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>40.0019</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>32.845</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>(0, 0, 0)</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>99.85067363933705</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>3.864333333333332</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>(0, 0, 0)</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>99.88592709422008</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>33.54490909090908</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>0.14932636066294788</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>-0.06969029688268231</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>0.5607834249416708</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>0.016449775041944854</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>0.7095564193848423</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>0.12929505453044632</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>0.008337554010852155</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>0.11407290577991845</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>-0.5754672108446744</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>3.806461185668352</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>-0.0006137470972708524</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>4.329849739667838</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>0.10575440841880956</t>
+        </is>
+      </c>
+      <c r="AD35" t="inlineStr">
+        <is>
+          <t>-0.035247817131826176</t>
+        </is>
+      </c>
+      <c r="AE35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>05/26/2021 01:39:20</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>3.6667</v>
+      </c>
+      <c r="C36" t="n">
+        <v>29.394</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>4.78426</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.7397</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>39.8312</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>32.716</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>(0, 0, 0)</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>99.84820787835068</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>3.8830294117396518</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>(0, 0, 0)</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>99.89265214614619</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>33.65552941176471</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>0.15179212164932357</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>-0.060827997419529455</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>0.5696457244048236</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>0.018915536028320537</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>0.7115913013296269</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>0.13155692433930344</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>0.006329205369563614</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>0.10734785385380267</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>-0.7351162750157961</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>3.64681212149723</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>-0.0073387990233866164</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>4.132922273496221</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>0.10096236506864109</t>
+        </is>
+      </c>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>-0.21762140073318917</t>
+        </is>
+      </c>
+      <c r="AE36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>05/26/2021 01:40:23</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>4.3333</v>
+      </c>
+      <c r="C37" t="n">
+        <v>29.704</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>4.7841000000000005</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.7865</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>39.6605</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>32.3965</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>(0, 0, 0)</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>99.85178144499062</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>3.876848571428571</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>(0, 0, 0)</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>99.89099189117485</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>33.53377142857142</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>0.14821855500937456</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>-0.09126056904659868</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>0.5609384708791779</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>0.009357744385373862</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>0.6952970625888455</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>0.12953991133858678</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>-0.007389910639267603</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>0.10900810882515609</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>-0.3839710670475488</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>3.6608859143490906</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>0.003143506169289054</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>4.1103968311160575</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>0.10198113725090474</t>
+        </is>
+      </c>
+      <c r="AD37" t="inlineStr">
+        <is>
+          <t>-0.08953373165887431</t>
+        </is>
+      </c>
+      <c r="AE37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>05/26/2021 01:41:27</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>3</v>
+      </c>
+      <c r="C38" t="n">
+        <v>35.438</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>4.78394</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.7397</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>39.4898</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>32.716</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>(0, 0, 0)</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>99.84408468170115</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>3.889527777777778</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>(0, 0, 0)</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>99.89196061316824</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>33.42738888888889</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>0.15591531829885139</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>0.04947233693630734</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>0.5570559922466992</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>0.047277790212706165</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>0.6901701983858247</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>0.13202043487335335</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>-0.28448392953169593</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>0.10803938683175936</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>-0.7046133933203097</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>3.6495683744011163</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>-0.006553834434773812</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>4.104654265449538</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>0.10135817952289905</t>
+        </is>
+      </c>
+      <c r="AD38" t="inlineStr">
+        <is>
+          <t>-0.10744508013621207</t>
+        </is>
+      </c>
+      <c r="AE38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
